--- a/pruebaHospedajes.xlsx
+++ b/pruebaHospedajes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Fecha Check-in</t>
   </si>
@@ -47,49 +47,130 @@
     <t>123</t>
   </si>
   <si>
+    <t>2017/06/28 21:47:52</t>
+  </si>
+  <si>
     <t>2017/06/28 21:57:01</t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
+    <t>2017/06/28 21:57:16</t>
+  </si>
+  <si>
     <t>2017/06/28 21:58:41</t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
+    <t>2017/06/28 21:58:59</t>
+  </si>
+  <si>
     <t>2017/06/28 21:59:30</t>
   </si>
   <si>
+    <t>2017/06/28 21:59:52</t>
+  </si>
+  <si>
     <t>2017/06/28 22:00:37</t>
   </si>
   <si>
+    <t>2017/06/28 22:00:48</t>
+  </si>
+  <si>
     <t>2017/06/28 22:01:17</t>
   </si>
   <si>
+    <t>2017/06/28 22:02:25</t>
+  </si>
+  <si>
     <t>2017/06/28 22:03:18</t>
   </si>
   <si>
     <t>102</t>
   </si>
   <si>
+    <t>2017/06/28 22:03:32</t>
+  </si>
+  <si>
     <t>2017/06/28 22:04:15</t>
   </si>
   <si>
+    <t>2017/06/28 22:04:50</t>
+  </si>
+  <si>
     <t>2017/06/28 22:05:59</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>2017/06/28 22:06:11</t>
+  </si>
+  <si>
     <t>2017/06/28 22:27:23</t>
   </si>
   <si>
+    <t>2017/06/28 22:42:40</t>
+  </si>
+  <si>
     <t>2017/07/04 17:54:13</t>
   </si>
   <si>
     <t>1234</t>
+  </si>
+  <si>
+    <t>2017/07/04 21:04:34</t>
+  </si>
+  <si>
+    <t>2017/07/04 20:35:43</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>2017/07/04 21:04:30</t>
+  </si>
+  <si>
+    <t>2017/07/04 21:06:01</t>
+  </si>
+  <si>
+    <t>2017/07/04 21:36:54</t>
+  </si>
+  <si>
+    <t>2017/07/04 21:12:55</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>2017/07/04 21:36:49</t>
+  </si>
+  <si>
+    <t>2017/07/04 21:13:19</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>2017/07/04 21:37:00</t>
+  </si>
+  <si>
+    <t>2017/07/04 21:19:51</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>1236</t>
+  </si>
+  <si>
+    <t>2017/07/04 21:37:05</t>
   </si>
 </sst>
 </file>
@@ -134,7 +215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -188,16 +269,16 @@
       <c r="G2" t="n">
         <v>2.0</v>
       </c>
-      <c r="H2" t="n">
-        <v>42914.90824074074</v>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -214,16 +295,16 @@
       <c r="G3" t="n">
         <v>2.0</v>
       </c>
-      <c r="H3" t="n">
-        <v>42914.914768518516</v>
+      <c r="H3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -240,16 +321,16 @@
       <c r="G4" t="n">
         <v>2.0</v>
       </c>
-      <c r="H4" t="n">
-        <v>42914.91596064815</v>
+      <c r="H4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -266,17 +347,17 @@
       <c r="G5" t="n">
         <v>2.0</v>
       </c>
-      <c r="H5" t="n">
-        <v>42914.91657407407</v>
+      <c r="H5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" t="n">
         <v>1.0</v>
       </c>
@@ -292,16 +373,16 @@
       <c r="G6" t="n">
         <v>2.0</v>
       </c>
-      <c r="H6" t="n">
-        <v>42914.91722222222</v>
+      <c r="H6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -318,16 +399,16 @@
       <c r="G7" t="n">
         <v>2.0</v>
       </c>
-      <c r="H7" t="n">
-        <v>42914.918344907404</v>
+      <c r="H7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -344,16 +425,16 @@
       <c r="G8" t="n">
         <v>2.0</v>
       </c>
-      <c r="H8" t="n">
-        <v>42914.919120370374</v>
+      <c r="H8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -370,22 +451,22 @@
       <c r="G9" t="n">
         <v>2.0</v>
       </c>
-      <c r="H9" t="n">
-        <v>42914.920023148145</v>
+      <c r="H9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
         <v>0.0</v>
@@ -396,16 +477,16 @@
       <c r="G10" t="n">
         <v>2.0</v>
       </c>
-      <c r="H10" t="n">
-        <v>42914.920960648145</v>
+      <c r="H10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -422,33 +503,165 @@
       <c r="G11" t="n">
         <v>2.0</v>
       </c>
-      <c r="H11" t="n">
-        <v>42914.94629629629</v>
+      <c r="H11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
       </c>
       <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H12"/>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/pruebaHospedajes.xlsx
+++ b/pruebaHospedajes.xlsx
@@ -12,36 +12,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t># Servicio Adicional</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="49">
+  <si>
+    <t># Check-in</t>
+  </si>
+  <si>
+    <t>Fecha Check-in</t>
+  </si>
+  <si>
+    <t>Habitacion</t>
+  </si>
+  <si>
+    <t>Tipo Documento</t>
+  </si>
+  <si>
+    <t>Cedula</t>
   </si>
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t># de Veces Consumido</t>
+    <t>Fecha Nacimiento</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Num Acompanantes</t>
+  </si>
+  <si>
+    <t>Num Noches Definidas</t>
   </si>
   <si>
     <t>Estado</t>
   </si>
   <si>
-    <t>Guaro</t>
-  </si>
-  <si>
-    <t>Ron</t>
-  </si>
-  <si>
-    <t>Bicicletero</t>
-  </si>
-  <si>
-    <t>Ducha</t>
-  </si>
-  <si>
-    <t>Condones</t>
+    <t>Fecha Check-out</t>
+  </si>
+  <si>
+    <t>2017/09/10 17:54:18</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>1040046523</t>
+  </si>
+  <si>
+    <t>Crisman Alejandro Carmona Marulanda</t>
+  </si>
+  <si>
+    <t>1111/11/11 00:00:00</t>
+  </si>
+  <si>
+    <t>No se definieron.</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:08:12</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:08:35</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:08:58</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:09:32</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:13:09</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:13:28</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:20:03</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:25:52</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:26:11</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:28:14</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:28:30</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:30:27</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:32:26</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:40:37</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:40:59</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:45:26</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:45:41</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:50:04</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:50:59</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:54:48</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>qwe qwe qwe qwe</t>
+  </si>
+  <si>
+    <t>2222/02/12 00:00:00</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:55:54</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:55:09</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:56:12</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:56:46</t>
+  </si>
+  <si>
+    <t>2017/09/10 18:57:29</t>
+  </si>
+  <si>
+    <t>2017/09/10 19:04:43</t>
+  </si>
+  <si>
+    <t>2017/09/10 19:05:17</t>
   </si>
 </sst>
 </file>
@@ -86,7 +203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -108,90 +225,558 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>101.0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1000.0</v>
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.231231312E9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.0</v>
+        <v>102.0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1233.0</v>
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.231231312E9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.0</v>
+        <v>103.0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>123.0</v>
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.231231312E9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.0</v>
+        <v>104.0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4000.0</v>
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.231231312E9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.0</v>
+        <v>105.0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>12000.0</v>
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.231231312E9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.231231312E9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.231231312E9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.231231312E9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.231231312E9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.231231312E9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.231231312E9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
